--- a/pred_ohlcv/54_21/2020-01-26 ENJ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 ENJ ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>281125.5498390628</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>279519.0342390629</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -522,7 +522,7 @@
         <v>281646.77698921</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>281026.77698921</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>280546.77698921</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>281166.77698921</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>281166.77698921</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>279388.37818921</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>279388.37818921</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>299431.5542533534</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>299431.5542533534</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>299078.9428533535</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>299078.9428533535</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>299078.9428533535</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>308104.5709533534</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>308104.5709533534</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>308104.5709533534</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>300748.7834533534</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>300654.5961533535</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>317576.4066543406</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>319576.4066543406</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>319576.4066543406</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>319576.4066543406</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>314847.7282543406</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>308091.7330543406</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>310436.2474543406</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>309626.2476543406</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>302983.1128543406</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>303383.1127543406</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>104269.8521543406</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>115199.8521543406</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-509063.3732210843</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-510652.7384210843</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-511670.4811210843</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-507670.4811210843</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-507670.4811210843</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-501225.6210210843</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-502343.4923210843</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-502343.4923210843</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-499343.4923210843</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-498807.4792210843</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-497808.4792210843</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-497808.4792210843</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-509808.4792210843</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-509808.4792210843</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-522799.4586210843</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-523799.4586210843</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-523799.4586210843</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-523733.3303210844</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-523818.0270210843</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-523818.0270210843</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-536818.0270210843</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-540812.0270210843</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-541812.0270210843</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-541772.0270210843</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-541772.0270210843</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-543885.0462730785</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-220691.6567730785</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-240507.5880730785</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-248668.7952730785</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-235610.4748730786</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-241987.9417730785</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-269246.0730730785</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-269246.0730730785</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-26 ENJ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 ENJ ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>279519.0342390629</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>280109.0342390629</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>281646.77698921</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>281026.77698921</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>280546.77698921</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>281166.77698921</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>281166.77698921</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>279388.37818921</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>279388.37818921</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -730,7 +730,7 @@
         <v>299431.5542533534</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>299078.9428533535</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>299078.9428533535</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>299078.9428533535</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>308104.5709533534</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -912,7 +912,7 @@
         <v>300748.7834533534</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>300654.5961533535</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>317576.4066543406</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>319576.4066543406</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>319576.4066543406</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>319576.4066543406</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>314847.7282543406</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>308091.7330543406</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>310436.2474543406</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>309626.2476543406</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>302983.1128543406</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>303383.1127543406</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>104269.8521543406</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>115199.8521543406</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>110683.1903543406</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-509063.3732210843</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-510652.7384210843</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-511670.4811210843</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-511670.4811210843</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-507670.4811210843</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-507670.4811210843</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-507670.4811210843</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-501225.6210210843</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-501225.6210210843</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-502343.4923210843</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-502343.4923210843</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-502343.4923210843</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-499343.4923210843</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-498807.4792210843</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-498807.4792210843</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-497808.4792210843</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-497808.4792210843</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-509808.4792210843</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-509808.4792210843</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-522799.4586210843</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-523799.4586210843</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-523799.4586210843</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-523733.3303210844</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-523818.0270210843</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-523818.0270210843</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-536818.0270210843</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-536812.0270210843</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-540812.0270210843</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-541812.0270210843</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-541812.0270210843</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-541772.0270210843</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-541772.0270210843</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-543885.0462730785</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-220691.6567730785</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-240507.5880730785</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-248668.7952730785</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-235610.4748730786</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-241987.9417730785</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-269246.0730730785</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-269246.0730730785</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
